--- a/biology/Microbiologie/Portiera/Portiera.xlsx
+++ b/biology/Microbiologie/Portiera/Portiera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Portiera est un genre de bactéries symbiote des aleurodes, qui, comme d'autres insectes hémiptères se nourrissent de sève phloémienne.
 Ce milieu nutritif est riche en sucre mais très pauvre en acides aminés essentiels pour les insectes. L'établissement d'une association symbiotique avec la bactérie leur permet de subvenir à leurs besoins nutritionnels.
@@ -514,7 +526,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Portiera aleyrodidarum</t>
         </is>
